--- a/table/biomass_BCD.xlsx
+++ b/table/biomass_BCD.xlsx
@@ -389,16 +389,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8616855319214296</v>
+        <v>0.8509092159840681</v>
       </c>
       <c r="C2">
-        <v>0.0006222376350997167</v>
+        <v>0.0003564971602369188</v>
       </c>
       <c r="D2">
-        <v>0.8147103291767155</v>
+        <v>0.7806962301593611</v>
       </c>
       <c r="E2">
-        <v>6.236564438572939e-005</v>
+        <v>1.412204170184479e-005</v>
       </c>
     </row>
     <row r="3">
@@ -406,16 +406,16 @@
         <v>0.1</v>
       </c>
       <c r="B3">
-        <v>0.9259045374105464</v>
+        <v>0.8734789077030982</v>
       </c>
       <c r="C3">
-        <v>0.0267880651451241</v>
+        <v>0.001170690556095257</v>
       </c>
       <c r="D3">
-        <v>0.9586375339704994</v>
+        <v>0.945960111102199</v>
       </c>
       <c r="E3">
-        <v>0.236473338722109</v>
+        <v>0.1013746584607922</v>
       </c>
     </row>
     <row r="4">
@@ -423,16 +423,16 @@
         <v>0.2</v>
       </c>
       <c r="B4">
-        <v>0.9111375251629448</v>
+        <v>0.8656969518537667</v>
       </c>
       <c r="C4">
-        <v>0.01049277814293323</v>
+        <v>0.0007693835755932071</v>
       </c>
       <c r="D4">
-        <v>0.9003182122616218</v>
+        <v>0.8849651696460288</v>
       </c>
       <c r="E4">
-        <v>0.005429356190471051</v>
+        <v>0.002219412612370729</v>
       </c>
     </row>
     <row r="5">
@@ -440,16 +440,16 @@
         <v>0.25</v>
       </c>
       <c r="B5">
-        <v>0.8875236082034816</v>
+        <v>0.8408742198261066</v>
       </c>
       <c r="C5">
-        <v>0.002567939588436401</v>
+        <v>0.0002157584515181243</v>
       </c>
       <c r="D5">
-        <v>0.8625330052183572</v>
+        <v>0.8528955196665423</v>
       </c>
       <c r="E5">
-        <v>0.0006506285172155979</v>
+        <v>0.0003944839033909362</v>
       </c>
     </row>
     <row r="6">
@@ -457,16 +457,16 @@
         <v>0.3</v>
       </c>
       <c r="B6">
-        <v>0.8855991205040882</v>
+        <v>0.833953879044985</v>
       </c>
       <c r="C6">
-        <v>0.002300825581209347</v>
+        <v>0.0001539494423392302</v>
       </c>
       <c r="D6">
-        <v>0.841702181304585</v>
+        <v>0.8270150827740983</v>
       </c>
       <c r="E6">
-        <v>0.0002247555332713927</v>
+        <v>0.0001105021877597798</v>
       </c>
     </row>
     <row r="7">
@@ -474,16 +474,16 @@
         <v>0.4</v>
       </c>
       <c r="B7">
-        <v>0.8829708621119706</v>
+        <v>0.8397327879019978</v>
       </c>
       <c r="C7">
-        <v>0.001982606886634793</v>
+        <v>0.0002039765540052356</v>
       </c>
       <c r="D7">
-        <v>0.821428293766968</v>
+        <v>0.7994153328468536</v>
       </c>
       <c r="E7">
-        <v>8.501654064462668e-005</v>
+        <v>3.145685980735156e-005</v>
       </c>
     </row>
     <row r="8">
@@ -491,16 +491,16 @@
         <v>0.5</v>
       </c>
       <c r="B8">
-        <v>0.8708246443021364</v>
+        <v>0.839944461853305</v>
       </c>
       <c r="C8">
-        <v>0.001013307435848777</v>
+        <v>0.0002061087867805871</v>
       </c>
       <c r="D8">
-        <v>0.7908825537050651</v>
+        <v>0.7583763256917896</v>
       </c>
       <c r="E8">
-        <v>2.173143237150683e-005</v>
+        <v>5.699558704515901e-006</v>
       </c>
     </row>
     <row r="9">
@@ -508,16 +508,16 @@
         <v>0.6</v>
       </c>
       <c r="B9">
-        <v>0.8582798541489839</v>
+        <v>0.8416012743436624</v>
       </c>
       <c r="C9">
-        <v>0.000520733072660298</v>
+        <v>0.0002236380315347403</v>
       </c>
       <c r="D9">
-        <v>0.7595960585518586</v>
+        <v>0.7283313129323578</v>
       </c>
       <c r="E9">
-        <v>5.981849089039583e-006</v>
+        <v>1.805985571180473e-006</v>
       </c>
     </row>
     <row r="10">
@@ -525,16 +525,16 @@
         <v>0.7</v>
       </c>
       <c r="B10">
-        <v>0.8621103825670675</v>
+        <v>0.8431823265072063</v>
       </c>
       <c r="C10">
-        <v>0.0006363024164803637</v>
+        <v>0.0002418464009775519</v>
       </c>
       <c r="D10">
-        <v>0.7397292512052747</v>
+        <v>0.7125975310765524</v>
       </c>
       <c r="E10">
-        <v>2.767728267752256e-006</v>
+        <v>1.018866505713978e-006</v>
       </c>
     </row>
     <row r="11">
@@ -542,16 +542,16 @@
         <v>0.8</v>
       </c>
       <c r="B11">
-        <v>0.8685507140025991</v>
+        <v>0.8535066042050612</v>
       </c>
       <c r="C11">
-        <v>0.0008963080821161237</v>
+        <v>0.0004070169720084024</v>
       </c>
       <c r="D11">
-        <v>0.7184191281620963</v>
+        <v>0.6938683632830103</v>
       </c>
       <c r="E11">
-        <v>1.256436480796426e-006</v>
+        <v>5.278673829037693e-007</v>
       </c>
     </row>
     <row r="12">
@@ -559,16 +559,16 @@
         <v>0.9</v>
       </c>
       <c r="B12">
-        <v>0.8661687556955502</v>
+        <v>0.8461045448792828</v>
       </c>
       <c r="C12">
-        <v>0.0007889765893922751</v>
+        <v>0.0002797701294392631</v>
       </c>
       <c r="D12">
-        <v>0.7044710810119932</v>
+        <v>0.6766217350143513</v>
       </c>
       <c r="E12">
-        <v>7.63610277976488e-007</v>
+        <v>2.942546768325853e-007</v>
       </c>
     </row>
     <row r="13">
@@ -576,16 +576,16 @@
         <v>1</v>
       </c>
       <c r="B13">
-        <v>0.8522285964221874</v>
+        <v>0.8290633937894685</v>
       </c>
       <c r="C13">
-        <v>0.000381271580286672</v>
+        <v>0.0001217808445520538</v>
       </c>
       <c r="D13">
-        <v>0.6918160879196977</v>
+        <v>0.6625136387329526</v>
       </c>
       <c r="E13">
-        <v>4.918991913006965e-007</v>
+        <v>1.850100096270231e-007</v>
       </c>
     </row>
   </sheetData>
